--- a/web_src/externals/WhiteListTemplate.xlsx
+++ b/web_src/externals/WhiteListTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07Go\GOPATH\src\gitee.com\liveqing\sipcms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penggy\go\src\liveqing.com\liveqing\sipcms\opensource\web_src\externals\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDDD99A-655F-4546-95E3-3D3A39DD2A12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备白名单" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <r>
       <t>国标设备编号（2</t>
@@ -57,11 +58,19 @@
     <t xml:space="preserve">LiveGBS国标设备白名单配置表 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>接入IP（为空表示不限接入IP）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入端口（为空表示不限接入端口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,44 +417,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="48.26171875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="49.47265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.89453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>